--- a/trillionaires.xlsx
+++ b/trillionaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Desktop\Programmeren\Website EDF - Copy\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA75041E-0ACB-443F-8F13-604C6FF03385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEAAF9E-9AEB-4FFB-B4F8-A452DA3080C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D07D2062-2315-41E7-91C5-36BC4B93A8BA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="186">
   <si>
     <t>Abomination cape</t>
   </si>
@@ -523,17 +523,93 @@
   </si>
   <si>
     <t xml:space="preserve">shadow egg </t>
+  </si>
+  <si>
+    <t>Abomination</t>
+  </si>
+  <si>
+    <t>Double pirate</t>
+  </si>
+  <si>
+    <t>Inf boots</t>
+  </si>
+  <si>
+    <t>Inf gloves</t>
+  </si>
+  <si>
+    <t>Inf hat</t>
+  </si>
+  <si>
+    <t>Inf top</t>
+  </si>
+  <si>
+    <t>Inf bottom</t>
+  </si>
+  <si>
+    <t>Pirate left</t>
+  </si>
+  <si>
+    <t>Pirate right</t>
+  </si>
+  <si>
+    <t>2a helm</t>
+  </si>
+  <si>
+    <t>2a mask</t>
+  </si>
+  <si>
+    <t>2a platelegs</t>
+  </si>
+  <si>
+    <t>2a platebody</t>
+  </si>
+  <si>
+    <t>2a bottom</t>
+  </si>
+  <si>
+    <t>2a top</t>
+  </si>
+  <si>
+    <t>3a druidic cloak</t>
+  </si>
+  <si>
+    <t>3a druidic staff</t>
+  </si>
+  <si>
+    <t>3a helm</t>
+  </si>
+  <si>
+    <t>3a kite</t>
+  </si>
+  <si>
+    <t>3a body</t>
+  </si>
+  <si>
+    <t>3a coif</t>
+  </si>
+  <si>
+    <t>3a hat</t>
+  </si>
+  <si>
+    <t>3a chaps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,6 +640,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -591,23 +679,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -926,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE123F5F-AFD2-4065-AE07-1628F8A730FD}">
   <dimension ref="A1:AB987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -941,686 +1039,676 @@
     <col min="8" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>98</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="F18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="AB20" s="6"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="F22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="2">
         <v>2</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>112</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="F30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="F31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>121</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D32" s="2"/>
+      <c r="F32" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="B34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="2">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="A35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="A38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="AB39" s="7"/>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="2">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>156</v>
+      </c>
       <c r="D41" s="2"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>157</v>
+      </c>
       <c r="D42" s="2"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1636,70 +1724,105 @@
     </row>
     <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
     </row>
     <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
     </row>
     <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D48" s="2"/>
       <c r="F48" s="1" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="D49" s="2"/>
       <c r="F49" s="1" t="s">
@@ -1708,339 +1831,313 @@
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D50" s="2"/>
       <c r="F50" s="1" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="F51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="D52" s="2"/>
       <c r="F52" s="1" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D53" s="2"/>
-      <c r="F53" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="F54" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="F55" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="F56" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="F57" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="2">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="F59" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+        <v>76</v>
+      </c>
       <c r="D60" s="2"/>
-      <c r="F60" s="1"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D61" s="2"/>
       <c r="F61" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="D62" s="2"/>
-      <c r="F62" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="D63" s="2"/>
-      <c r="F63" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+        <v>159</v>
+      </c>
       <c r="D64" s="2"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D65" s="2"/>
       <c r="F65" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="F66" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="9">
+        <v>2</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="F67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="9">
+        <v>2</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="F68" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="F69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="9">
+        <v>2</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="F70" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="F71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="9">
+        <v>2</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>140</v>
       </c>
@@ -2055,154 +2152,286 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="9">
+        <v>2</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="9">
+        <v>2</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="9">
+        <v>2</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="9">
+        <v>2</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="F73" s="1" t="s">
+      <c r="D84" s="2"/>
+      <c r="F84" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D74" s="2"/>
-      <c r="F74" s="1" t="s">
+      <c r="D87" s="2"/>
+      <c r="F87" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="F75" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4879,6 +5108,9 @@
       <c r="D987" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AB987">
+    <sortCondition ref="A18:A987"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
